--- a/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
+++ b/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\FACULDADE\2 Semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E7630C-975F-4CEC-B287-2A889DAA1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3AD8BB-1897-45B7-A5D4-8EC89E3786A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE701CEF-AB2E-47E8-9D73-D5F0B7BBEC45}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{DE701CEF-AB2E-47E8-9D73-D5F0B7BBEC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="26">
   <si>
     <t>TAREFA</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>ANÁLISE E MODELAGEM DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +166,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +319,24 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,8 +657,8 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +667,7 @@
     <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -671,22 +700,26 @@
       <c r="D2" s="7">
         <v>45143</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="14">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13">
-        <v>45143</v>
-      </c>
-      <c r="E3" s="14"/>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45150</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -696,27 +729,27 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>45150</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>45157</v>
+      </c>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="14">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="13">
-        <v>45150</v>
-      </c>
-      <c r="E5" s="14"/>
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45159</v>
+      </c>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -726,27 +759,29 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>45157</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>45164</v>
+      </c>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13">
-        <v>45157</v>
-      </c>
-      <c r="E7" s="14"/>
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45166</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -756,12 +791,12 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>45159</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>45166</v>
+      </c>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -771,27 +806,27 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>45164</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>45173</v>
+      </c>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="13">
-        <v>45164</v>
-      </c>
-      <c r="E10" s="14"/>
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45227</v>
+      </c>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -801,12 +836,14 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>45166</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>45269</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -816,27 +853,29 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>45166</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>45269</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="16">
-        <v>3</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="18">
-        <v>45171</v>
-      </c>
-      <c r="E13" s="16"/>
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45269</v>
+      </c>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -846,612 +885,612 @@
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45269</v>
+      </c>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="13">
+        <v>45143</v>
+      </c>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="13">
+        <v>45150</v>
+      </c>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="13">
+        <v>45157</v>
+      </c>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="13">
+        <v>45164</v>
+      </c>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="13">
+        <v>45227</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="13">
+        <v>45234</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="13">
+        <v>45243</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="14">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7">
-        <v>45173</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="D22" s="13">
+        <v>45250</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="14">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="13">
+        <v>45269</v>
+      </c>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="14">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="13">
+        <v>45269</v>
+      </c>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="14">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="13">
+        <v>45269</v>
+      </c>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="14">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="13">
+        <v>45269</v>
+      </c>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="14">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="16">
-        <v>3</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="B28" s="16">
+        <v>3</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="18">
+        <v>45171</v>
+      </c>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="16">
+        <v>3</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D29" s="18">
         <v>45178</v>
       </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="B30" s="16">
+        <v>3</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D30" s="18">
         <v>45185</v>
       </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="16">
-        <v>3</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="B31" s="16">
+        <v>3</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D31" s="18">
         <v>45192</v>
       </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="16">
-        <v>3</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="B32" s="16">
+        <v>3</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D32" s="18">
         <v>45194</v>
       </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="16">
-        <v>3</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="B33" s="16">
+        <v>3</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D33" s="18">
         <v>45194</v>
       </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="16">
+        <v>3</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="18">
+        <v>45201</v>
+      </c>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="16">
+        <v>3</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="18">
+        <v>45269</v>
+      </c>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="16">
+        <v>3</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="18">
+        <v>45269</v>
+      </c>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="16">
+        <v>3</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="18">
+        <v>45269</v>
+      </c>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="16">
+        <v>3</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="18">
+        <v>45269</v>
+      </c>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="16">
+        <v>3</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="16">
+        <v>3</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="20">
-        <v>4</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B41" s="20">
+        <v>4</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D41" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="16">
-        <v>3</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="20">
+        <v>4</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="21">
+        <v>45206</v>
+      </c>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="20">
+        <v>4</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="21">
+        <v>45213</v>
+      </c>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="20">
+        <v>4</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="21">
+        <v>45220</v>
+      </c>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="20">
+        <v>4</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="21">
+        <v>45222</v>
+      </c>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="20">
+        <v>4</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="21">
+        <v>45222</v>
+      </c>
+      <c r="E46" s="30"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="20">
+        <v>4</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="21">
+        <v>45227</v>
+      </c>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="20">
+        <v>4</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="18">
-        <v>45201</v>
-      </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="D48" s="21">
+        <v>45229</v>
+      </c>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="20">
-        <v>4</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="21">
-        <v>45206</v>
-      </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="B49" s="20">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="21">
+        <v>45269</v>
+      </c>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="21">
-        <v>45213</v>
-      </c>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="B50" s="20">
+        <v>4</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="21">
+        <v>45270</v>
+      </c>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="20">
-        <v>4</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="21">
-        <v>45220</v>
-      </c>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="B51" s="20">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="21">
+        <v>45271</v>
+      </c>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="20">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="21">
-        <v>45222</v>
-      </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="B52" s="20">
+        <v>4</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="21">
+        <v>45272</v>
+      </c>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="20">
-        <v>4</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="21">
-        <v>45222</v>
-      </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="B53" s="20">
+        <v>4</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="23">
+        <v>5</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="25">
         <v>45227</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="14">
-        <v>2</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="13">
-        <v>45227</v>
-      </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="20">
-        <v>4</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="21">
-        <v>45227</v>
-      </c>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="23">
-        <v>5</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="25">
-        <v>45227</v>
-      </c>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="20">
-        <v>4</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="21">
-        <v>45229</v>
-      </c>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="14">
-        <v>2</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="13">
-        <v>45234</v>
-      </c>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="23">
-        <v>5</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="25">
-        <v>45234</v>
-      </c>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="23">
-        <v>5</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="25">
-        <v>45241</v>
-      </c>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="23">
-        <v>5</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="25">
-        <v>45241</v>
-      </c>
-      <c r="E35" s="23"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="14">
-        <v>2</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="13">
-        <v>45243</v>
-      </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="23">
-        <v>5</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="25">
-        <v>45248</v>
-      </c>
-      <c r="E37" s="23"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="14">
-        <v>2</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="13">
-        <v>45250</v>
-      </c>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="23">
-        <v>5</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="25">
-        <v>45250</v>
-      </c>
-      <c r="E39" s="23"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="23">
-        <v>5</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="25">
-        <v>45250</v>
-      </c>
-      <c r="E40" s="23"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="23">
-        <v>5</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="25">
-        <v>45257</v>
-      </c>
-      <c r="E41" s="23"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="7">
-        <v>45269</v>
-      </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="7">
-        <v>45269</v>
-      </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="7">
-        <v>45269</v>
-      </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="7">
-        <v>45269</v>
-      </c>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="14">
-        <v>2</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="13">
-        <v>45269</v>
-      </c>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="14">
-        <v>2</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="13">
-        <v>45269</v>
-      </c>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="14">
-        <v>2</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="13">
-        <v>45269</v>
-      </c>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="14">
-        <v>2</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="13">
-        <v>45269</v>
-      </c>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="16">
-        <v>3</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="18">
-        <v>45269</v>
-      </c>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="16">
-        <v>3</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="18">
-        <v>45269</v>
-      </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="16">
-        <v>3</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="18">
-        <v>45269</v>
-      </c>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="16">
-        <v>3</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="18">
-        <v>45269</v>
-      </c>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="20">
-        <v>4</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="21">
-        <v>45269</v>
-      </c>
-      <c r="E54" s="20"/>
+      <c r="E54" s="31"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -1461,27 +1500,27 @@
         <v>5</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="25">
-        <v>45269</v>
-      </c>
-      <c r="E55" s="23"/>
+        <v>45234</v>
+      </c>
+      <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="20">
-        <v>4</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="21">
-        <v>45270</v>
-      </c>
-      <c r="E56" s="20"/>
+      <c r="A56" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="23">
+        <v>5</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="25">
+        <v>45241</v>
+      </c>
+      <c r="E56" s="31"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
@@ -1491,27 +1530,27 @@
         <v>5</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D57" s="25">
-        <v>45270</v>
-      </c>
-      <c r="E57" s="23"/>
+        <v>45241</v>
+      </c>
+      <c r="E57" s="31"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="20">
-        <v>4</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="21">
-        <v>45271</v>
-      </c>
-      <c r="E58" s="20"/>
+      <c r="A58" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="23">
+        <v>5</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="25">
+        <v>45248</v>
+      </c>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
@@ -1521,27 +1560,27 @@
         <v>5</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D59" s="25">
-        <v>45271</v>
-      </c>
-      <c r="E59" s="23"/>
+        <v>45250</v>
+      </c>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="20">
-        <v>4</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="21">
-        <v>45272</v>
-      </c>
-      <c r="E60" s="20"/>
+      <c r="A60" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="23">
+        <v>5</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="25">
+        <v>45250</v>
+      </c>
+      <c r="E60" s="31"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
@@ -1551,72 +1590,72 @@
         <v>5</v>
       </c>
       <c r="C61" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="25">
+        <v>45257</v>
+      </c>
+      <c r="E61" s="31"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="23">
+        <v>5</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="25">
+        <v>45269</v>
+      </c>
+      <c r="E62" s="31"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="23">
+        <v>5</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="25">
+        <v>45270</v>
+      </c>
+      <c r="E63" s="31"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="23">
+        <v>5</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="25">
+        <v>45271</v>
+      </c>
+      <c r="E64" s="31"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="23">
+        <v>5</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D65" s="25">
         <v>45272</v>
       </c>
-      <c r="E61" s="23"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="14">
-        <v>2</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="14"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="16">
-        <v>3</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="16"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="16">
-        <v>3</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="20">
-        <v>4</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="20"/>
+      <c r="E65" s="31"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
@@ -1631,12 +1670,12 @@
       <c r="D66" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="23"/>
+      <c r="E66" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F0DE1B69-E940-49E2-B30B-F82E6071DE3D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E66">
-      <sortCondition ref="D1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
+++ b/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\FACULDADE\2 Semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF6B9B9-2F25-465D-9675-03518BED8C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC9CC9-9D87-4697-B7B5-636BC4AB2D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE701CEF-AB2E-47E8-9D73-D5F0B7BBEC45}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$A$1:$F$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -661,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,7 +1768,7 @@
       <c r="F66" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F66" xr:uid="{F0DE1B69-E940-49E2-B30B-F82E6071DE3D}">
+  <autoFilter ref="A1:F1" xr:uid="{F0DE1B69-E940-49E2-B30B-F82E6071DE3D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
       <sortCondition ref="E1"/>
     </sortState>

--- a/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
+++ b/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\FACULDADE\2 Semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC9CC9-9D87-4697-B7B5-636BC4AB2D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27FFEDD-1DC7-40C4-8C3F-A58BA777E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE701CEF-AB2E-47E8-9D73-D5F0B7BBEC45}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{DE701CEF-AB2E-47E8-9D73-D5F0B7BBEC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="26">
   <si>
     <t>TAREFA</t>
   </si>
@@ -661,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,7 +951,9 @@
       <c r="E16" s="18">
         <v>45185</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">

--- a/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
+++ b/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\FACULDADE\2 Semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\REPOSITÓRIO\FACULDADE\2 Semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27FFEDD-1DC7-40C4-8C3F-A58BA777E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66DDB12-63CD-48D2-9C54-71E4FE884B75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{DE701CEF-AB2E-47E8-9D73-D5F0B7BBEC45}"/>
   </bookViews>
@@ -19,28 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$A$1:$F$66</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="28">
   <si>
     <t>TAREFA</t>
   </si>
@@ -118,6 +107,12 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFAZER </t>
+  </si>
+  <si>
+    <t>28/11/23 </t>
   </si>
 </sst>
 </file>
@@ -127,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +165,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +231,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -248,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +358,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,23 +690,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="3.77734375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -693,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -711,7 +742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
@@ -727,7 +758,7 @@
       </c>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -745,7 +776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -761,7 +792,7 @@
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -779,7 +810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -795,7 +826,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -813,7 +844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -831,7 +862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -847,7 +878,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -865,7 +896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -883,7 +914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
@@ -901,7 +932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -919,7 +950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
@@ -937,7 +968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
@@ -955,7 +986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>21</v>
       </c>
@@ -969,9 +1000,11 @@
       <c r="E17" s="18">
         <v>45192</v>
       </c>
-      <c r="F17" s="31"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>21</v>
       </c>
@@ -985,9 +1018,11 @@
       <c r="E18" s="18">
         <v>45194</v>
       </c>
-      <c r="F18" s="31"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>21</v>
       </c>
@@ -1003,23 +1038,28 @@
       </c>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="16">
-        <v>3</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="36">
+        <v>3</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="27"/>
-      <c r="E20" s="18">
+      <c r="E20" s="38">
         <v>45201</v>
       </c>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>22</v>
       </c>
@@ -1035,7 +1075,7 @@
       </c>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
@@ -1051,7 +1091,7 @@
       </c>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1107,7 @@
       </c>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>22</v>
       </c>
@@ -1083,7 +1123,7 @@
       </c>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1139,7 @@
       </c>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1117,7 +1157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -1133,7 +1173,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>22</v>
       </c>
@@ -1149,7 +1189,7 @@
       </c>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1205,7 @@
       </c>
       <c r="F29" s="33"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>22</v>
       </c>
@@ -1181,7 +1221,7 @@
       </c>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>18</v>
       </c>
@@ -1197,7 +1237,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>24</v>
       </c>
@@ -1213,7 +1253,7 @@
       </c>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>24</v>
       </c>
@@ -1229,7 +1269,7 @@
       </c>
       <c r="F33" s="33"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>24</v>
       </c>
@@ -1245,7 +1285,7 @@
       </c>
       <c r="F34" s="33"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>18</v>
       </c>
@@ -1261,7 +1301,7 @@
       </c>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1317,7 @@
       </c>
       <c r="F36" s="33"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>18</v>
       </c>
@@ -1293,7 +1333,7 @@
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>24</v>
       </c>
@@ -1309,7 +1349,7 @@
       </c>
       <c r="F38" s="33"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>24</v>
       </c>
@@ -1325,7 +1365,7 @@
       </c>
       <c r="F39" s="33"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1381,7 @@
       </c>
       <c r="F40" s="33"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -1377,7 +1417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>18</v>
       </c>
@@ -1429,7 +1469,7 @@
       </c>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>18</v>
       </c>
@@ -1445,7 +1485,7 @@
       </c>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>18</v>
       </c>
@@ -1461,7 +1501,7 @@
       </c>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +1517,7 @@
       </c>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>21</v>
       </c>
@@ -1495,7 +1535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>21</v>
       </c>
@@ -1513,7 +1553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>21</v>
       </c>
@@ -1529,7 +1569,7 @@
       </c>
       <c r="F51" s="31"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>21</v>
       </c>
@@ -1545,7 +1585,7 @@
       </c>
       <c r="F52" s="31"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>22</v>
       </c>
@@ -1561,7 +1601,7 @@
       </c>
       <c r="F53" s="32"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>24</v>
       </c>
@@ -1577,7 +1617,7 @@
       </c>
       <c r="F54" s="33"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>22</v>
       </c>
@@ -1593,7 +1633,7 @@
       </c>
       <c r="F55" s="32"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1649,7 @@
       </c>
       <c r="F56" s="33"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>22</v>
       </c>
@@ -1625,7 +1665,7 @@
       </c>
       <c r="F57" s="32"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>24</v>
       </c>
@@ -1641,7 +1681,7 @@
       </c>
       <c r="F58" s="33"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>22</v>
       </c>
@@ -1657,7 +1697,7 @@
       </c>
       <c r="F59" s="32"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>24</v>
       </c>
@@ -1673,7 +1713,7 @@
       </c>
       <c r="F60" s="33"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>18</v>
       </c>
@@ -1689,7 +1729,7 @@
       </c>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1745,7 @@
       </c>
       <c r="F62" s="31"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>21</v>
       </c>
@@ -1721,7 +1761,7 @@
       </c>
       <c r="F63" s="31"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>22</v>
       </c>
@@ -1737,7 +1777,7 @@
       </c>
       <c r="F64" s="32"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>24</v>
       </c>
@@ -1753,7 +1793,7 @@
       </c>
       <c r="F65" s="33"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>22</v>
       </c>
@@ -1771,12 +1811,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{F0DE1B69-E940-49E2-B30B-F82E6071DE3D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
+    <sortState ref="A2:F66">
       <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
+++ b/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\REPOSITÓRIO\FACULDADE\2 Semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\FACULDADE\2 Semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66DDB12-63CD-48D2-9C54-71E4FE884B75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526B03CD-7A26-4CB0-9C57-1BB5923981D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{DE701CEF-AB2E-47E8-9D73-D5F0B7BBEC45}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE701CEF-AB2E-47E8-9D73-D5F0B7BBEC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$A$1:$F$66</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="28">
   <si>
     <t>TAREFA</t>
   </si>
@@ -122,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +191,14 @@
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -265,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +392,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,23 +710,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -724,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -742,7 +763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
@@ -756,9 +777,11 @@
       <c r="E3" s="13">
         <v>45143</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -776,7 +799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -790,9 +813,11 @@
       <c r="E5" s="13">
         <v>45150</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -810,7 +835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -824,9 +849,11 @@
       <c r="E7" s="13">
         <v>45157</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -844,7 +871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -862,7 +889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -878,7 +905,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -896,7 +923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -913,8 +940,9 @@
       <c r="F12" s="30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
@@ -932,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -950,7 +978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
@@ -968,7 +996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
@@ -986,7 +1014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>21</v>
       </c>
@@ -1004,7 +1032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>21</v>
       </c>
@@ -1038,7 +1066,7 @@
       </c>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="35" t="s">
         <v>21</v>
       </c>
@@ -1059,7 +1087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>22</v>
       </c>
@@ -1075,7 +1103,7 @@
       </c>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
@@ -1091,7 +1119,7 @@
       </c>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -1107,7 +1135,7 @@
       </c>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>22</v>
       </c>
@@ -1123,7 +1151,7 @@
       </c>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1167,7 @@
       </c>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1157,7 +1185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1201,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>22</v>
       </c>
@@ -1189,7 +1217,7 @@
       </c>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>24</v>
       </c>
@@ -1205,7 +1233,7 @@
       </c>
       <c r="F29" s="33"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>22</v>
       </c>
@@ -1221,7 +1249,7 @@
       </c>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>18</v>
       </c>
@@ -1237,7 +1265,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>24</v>
       </c>
@@ -1253,7 +1281,7 @@
       </c>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1297,7 @@
       </c>
       <c r="F33" s="33"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>24</v>
       </c>
@@ -1285,7 +1313,7 @@
       </c>
       <c r="F34" s="33"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>18</v>
       </c>
@@ -1299,9 +1327,11 @@
       <c r="E35" s="13">
         <v>45243</v>
       </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>24</v>
       </c>
@@ -1317,7 +1347,7 @@
       </c>
       <c r="F36" s="33"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>18</v>
       </c>
@@ -1333,7 +1363,7 @@
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>24</v>
       </c>
@@ -1349,7 +1379,7 @@
       </c>
       <c r="F38" s="33"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>24</v>
       </c>
@@ -1365,7 +1395,7 @@
       </c>
       <c r="F39" s="33"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>24</v>
       </c>
@@ -1381,7 +1411,7 @@
       </c>
       <c r="F40" s="33"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
@@ -1399,7 +1429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -1417,7 +1447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -1453,7 +1483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>18</v>
       </c>
@@ -1467,9 +1497,11 @@
       <c r="E45" s="13">
         <v>45269</v>
       </c>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>18</v>
       </c>
@@ -1483,9 +1515,11 @@
       <c r="E46" s="13">
         <v>45269</v>
       </c>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>18</v>
       </c>
@@ -1499,9 +1533,11 @@
       <c r="E47" s="13">
         <v>45269</v>
       </c>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>18</v>
       </c>
@@ -1515,9 +1551,11 @@
       <c r="E48" s="13">
         <v>45269</v>
       </c>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>21</v>
       </c>
@@ -1553,7 +1591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>21</v>
       </c>
@@ -1569,7 +1607,7 @@
       </c>
       <c r="F51" s="31"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>21</v>
       </c>
@@ -1585,7 +1623,7 @@
       </c>
       <c r="F52" s="31"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +1639,7 @@
       </c>
       <c r="F53" s="32"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>24</v>
       </c>
@@ -1617,7 +1655,7 @@
       </c>
       <c r="F54" s="33"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>22</v>
       </c>
@@ -1633,7 +1671,7 @@
       </c>
       <c r="F55" s="32"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>24</v>
       </c>
@@ -1649,7 +1687,7 @@
       </c>
       <c r="F56" s="33"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>22</v>
       </c>
@@ -1665,7 +1703,7 @@
       </c>
       <c r="F57" s="32"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1719,7 @@
       </c>
       <c r="F58" s="33"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>22</v>
       </c>
@@ -1697,7 +1735,7 @@
       </c>
       <c r="F59" s="32"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>24</v>
       </c>
@@ -1713,7 +1751,7 @@
       </c>
       <c r="F60" s="33"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>18</v>
       </c>
@@ -1729,7 +1767,7 @@
       </c>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>21</v>
       </c>
@@ -1745,7 +1783,7 @@
       </c>
       <c r="F62" s="31"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +1799,7 @@
       </c>
       <c r="F63" s="31"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1815,7 @@
       </c>
       <c r="F64" s="32"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>24</v>
       </c>
@@ -1793,7 +1831,7 @@
       </c>
       <c r="F65" s="33"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1849,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{F0DE1B69-E940-49E2-B30B-F82E6071DE3D}">
-    <sortState ref="A2:F66">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
       <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>

--- a/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
+++ b/2 Semestre/CONTROLE DE TAREFAS - 2 SEMESTRE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\FACULDADE\2 Semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526B03CD-7A26-4CB0-9C57-1BB5923981D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2379CDB-5193-400A-9A10-B45561B368F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE701CEF-AB2E-47E8-9D73-D5F0B7BBEC45}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="29">
   <si>
     <t>TAREFA</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>28/11/23 </t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,21 +381,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,7 +723,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection activeCell="G28" sqref="G27:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +913,9 @@
       <c r="E10" s="13">
         <v>45164</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -940,7 +952,7 @@
       <c r="F12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="41"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
@@ -1066,24 +1078,24 @@
       </c>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:7" s="42" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="36">
-        <v>3</v>
-      </c>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="37">
+        <v>3</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="38">
+      <c r="D20" s="39"/>
+      <c r="E20" s="40">
         <v>45201</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1361,7 +1373,9 @@
       <c r="E37" s="13">
         <v>45250</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
@@ -1765,7 +1779,9 @@
       <c r="E61" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
@@ -1781,7 +1797,9 @@
       <c r="E62" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="31"/>
+      <c r="F62" s="31" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
@@ -1797,7 +1815,9 @@
       <c r="E63" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="31"/>
+      <c r="F63" s="31" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
@@ -1813,7 +1833,9 @@
       <c r="E64" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="32"/>
+      <c r="F64" s="32" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
@@ -1829,7 +1851,9 @@
       <c r="E65" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="33"/>
+      <c r="F65" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
@@ -1845,7 +1869,9 @@
       <c r="E66" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="32"/>
+      <c r="F66" s="32" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{F0DE1B69-E940-49E2-B30B-F82E6071DE3D}">
